--- a/BloodstreamAPI/testData/conclusions.xlsx
+++ b/BloodstreamAPI/testData/conclusions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F097F457-C687-4547-A961-321762899243}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77C949B1-514B-4DEA-B9A2-3FE9558BA9ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approve" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>EndPoint</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Assert200</t>
   </si>
   <si>
-    <t>Assert400</t>
-  </si>
-  <si>
     <t>Assert401</t>
   </si>
   <si>
     <t>/conclusions/approve</t>
+  </si>
+  <si>
+    <t>/conclusions/approve1</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,9 +444,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -457,18 +455,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -479,7 +473,7 @@
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -501,7 +495,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/conclusions.xlsx
+++ b/BloodstreamAPI/testData/conclusions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77C949B1-514B-4DEA-B9A2-3FE9558BA9ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7642AAED-CA92-4627-86C6-B619F0E0260C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,12 +398,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -418,23 +418,21 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -481,22 +479,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/conclusions.xlsx
+++ b/BloodstreamAPI/testData/conclusions.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7642AAED-CA92-4627-86C6-B619F0E0260C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F055A6D7-4AD8-4316-8DE8-4F9F5C1DEF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approve" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>EndPoint</t>
   </si>
@@ -35,7 +34,7 @@
     <t>/conclusions/approve</t>
   </si>
   <si>
-    <t>/conclusions/approve1</t>
+    <t>Assert400</t>
   </si>
 </sst>
 </file>
@@ -395,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC9B42-5356-4D66-ABF8-4EF2DFAF1ABA}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +425,9 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -496,11 +495,39 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
